--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf18-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3156923333333333</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H2">
-        <v>0.9470769999999999</v>
+        <v>1.791823</v>
       </c>
       <c r="I2">
-        <v>0.05856969468189593</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J2">
-        <v>0.05856969468189595</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.243417666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N2">
-        <v>15.730253</v>
+        <v>13.855658</v>
       </c>
       <c r="O2">
-        <v>0.8253998362974575</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P2">
-        <v>0.8253998362974574</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q2">
-        <v>1.655306757831222</v>
+        <v>2.758542964948222</v>
       </c>
       <c r="R2">
-        <v>14.897760820481</v>
+        <v>24.826886684534</v>
       </c>
       <c r="S2">
-        <v>0.04834341640242897</v>
+        <v>0.07804232124229744</v>
       </c>
       <c r="T2">
-        <v>0.04834341640242898</v>
+        <v>0.07804232124229743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3156923333333333</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H3">
-        <v>0.9470769999999999</v>
+        <v>1.791823</v>
       </c>
       <c r="I3">
-        <v>0.05856969468189593</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J3">
-        <v>0.05856969468189595</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +626,22 @@
         <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q3">
-        <v>0.2144493811102222</v>
+        <v>0.4057276582675555</v>
       </c>
       <c r="R3">
-        <v>1.930044429992</v>
+        <v>3.651548924408</v>
       </c>
       <c r="S3">
-        <v>0.00626301782386109</v>
+        <v>0.01147849739726493</v>
       </c>
       <c r="T3">
-        <v>0.006263017823861091</v>
+        <v>0.01147849739726493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3156923333333333</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H4">
-        <v>0.9470769999999999</v>
+        <v>1.791823</v>
       </c>
       <c r="I4">
-        <v>0.05856969468189593</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J4">
-        <v>0.05856969468189595</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,43 +682,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4298626666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N4">
-        <v>1.289588</v>
+        <v>1.436811</v>
       </c>
       <c r="O4">
-        <v>0.06766742557104236</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P4">
-        <v>0.06766742557104236</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q4">
-        <v>0.1357043482528889</v>
+        <v>0.2860567773836667</v>
       </c>
       <c r="R4">
-        <v>1.221339134276</v>
+        <v>2.574510996453</v>
       </c>
       <c r="S4">
-        <v>0.003963260455605869</v>
+        <v>0.008092871924701563</v>
       </c>
       <c r="T4">
-        <v>0.00396326045560587</v>
+        <v>0.008092871924701563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.044312666666666</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H5">
-        <v>12.132938</v>
+        <v>1.791823</v>
       </c>
       <c r="I5">
-        <v>0.7503323111577761</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J5">
-        <v>0.7503323111577762</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.243417666666667</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N5">
-        <v>15.730253</v>
+        <v>0.334861</v>
       </c>
       <c r="O5">
-        <v>0.8253998362974575</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P5">
-        <v>0.8253998362974574</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q5">
-        <v>21.20602048592378</v>
+        <v>0.06666796017811111</v>
       </c>
       <c r="R5">
-        <v>190.854184373314</v>
+        <v>0.600011641603</v>
       </c>
       <c r="S5">
-        <v>0.6193241667983214</v>
+        <v>0.001886112498844657</v>
       </c>
       <c r="T5">
-        <v>0.6193241667983214</v>
+        <v>0.001886112498844657</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +794,40 @@
         <v>12.132938</v>
       </c>
       <c r="I6">
-        <v>0.7503323111577761</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J6">
-        <v>0.7503323111577762</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6792986666666666</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N6">
-        <v>2.037896</v>
+        <v>13.855658</v>
       </c>
       <c r="O6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q6">
-        <v>2.747296202049777</v>
+        <v>18.67887105146711</v>
       </c>
       <c r="R6">
-        <v>24.725665818448</v>
+        <v>168.109839463204</v>
       </c>
       <c r="S6">
-        <v>0.0802350885406377</v>
+        <v>0.5284465290427</v>
       </c>
       <c r="T6">
-        <v>0.08023508854063771</v>
+        <v>0.5284465290426998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,54 +856,54 @@
         <v>12.132938</v>
       </c>
       <c r="I7">
-        <v>0.7503323111577761</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J7">
-        <v>0.7503323111577762</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4298626666666667</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N7">
-        <v>1.289588</v>
+        <v>2.037896</v>
       </c>
       <c r="O7">
-        <v>0.06766742557104236</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P7">
-        <v>0.06766742557104236</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q7">
-        <v>1.738499027727111</v>
+        <v>2.747296202049777</v>
       </c>
       <c r="R7">
-        <v>15.646491249544</v>
+        <v>24.725665818448</v>
       </c>
       <c r="S7">
-        <v>0.050773055818817</v>
+        <v>0.07772413751479733</v>
       </c>
       <c r="T7">
-        <v>0.05077305581881702</v>
+        <v>0.07772413751479734</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9592346666666666</v>
+        <v>4.044312666666666</v>
       </c>
       <c r="H8">
-        <v>2.877704</v>
+        <v>12.132938</v>
       </c>
       <c r="I8">
-        <v>0.1779646688335486</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J8">
-        <v>0.1779646688335486</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,43 +930,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.243417666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N8">
-        <v>15.730253</v>
+        <v>1.436811</v>
       </c>
       <c r="O8">
-        <v>0.8253998362974575</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P8">
-        <v>0.8253998362974574</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q8">
-        <v>5.029667997679111</v>
+        <v>1.936970975635333</v>
       </c>
       <c r="R8">
-        <v>45.26701197911199</v>
+        <v>17.432738780718</v>
       </c>
       <c r="S8">
-        <v>0.1468920085219422</v>
+        <v>0.05479911425645542</v>
       </c>
       <c r="T8">
-        <v>0.1468920085219422</v>
+        <v>0.05479911425645542</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9592346666666666</v>
+        <v>4.044312666666666</v>
       </c>
       <c r="H9">
-        <v>2.877704</v>
+        <v>12.132938</v>
       </c>
       <c r="I9">
-        <v>0.1779646688335486</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J9">
-        <v>0.1779646688335486</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.6792986666666666</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N9">
-        <v>2.037896</v>
+        <v>0.334861</v>
       </c>
       <c r="O9">
-        <v>0.1069327381315001</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P9">
-        <v>0.1069327381315001</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q9">
-        <v>0.651606830087111</v>
+        <v>0.4514275279575555</v>
       </c>
       <c r="R9">
-        <v>5.864461470783999</v>
+        <v>4.062847751618</v>
       </c>
       <c r="S9">
-        <v>0.01903024932903698</v>
+        <v>0.01277139874279284</v>
       </c>
       <c r="T9">
-        <v>0.01903024932903698</v>
+        <v>0.01277139874279284</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1021,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9592346666666666</v>
+        <v>0.748897</v>
       </c>
       <c r="H10">
-        <v>2.877704</v>
+        <v>2.246691</v>
       </c>
       <c r="I10">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="J10">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1054,710 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4298626666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N10">
-        <v>1.289588</v>
+        <v>13.855658</v>
       </c>
       <c r="O10">
-        <v>0.06766742557104236</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P10">
-        <v>0.06766742557104236</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q10">
-        <v>0.4123391717724444</v>
+        <v>3.458820236408667</v>
       </c>
       <c r="R10">
-        <v>3.711052545952</v>
+        <v>31.129382127678</v>
       </c>
       <c r="S10">
-        <v>0.01204241098256935</v>
+        <v>0.09785396255890147</v>
       </c>
       <c r="T10">
-        <v>0.01204241098256935</v>
+        <v>0.09785396255890146</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.070789</v>
+        <v>0.748897</v>
       </c>
       <c r="H11">
-        <v>0.212367</v>
+        <v>2.246691</v>
       </c>
       <c r="I11">
-        <v>0.01313332532677934</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="J11">
-        <v>0.01313332532677934</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>5.243417666666667</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N11">
-        <v>15.730253</v>
+        <v>2.037896</v>
       </c>
       <c r="O11">
-        <v>0.8253998362974575</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P11">
-        <v>0.8253998362974574</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q11">
-        <v>0.3711762932056667</v>
+        <v>0.5087247335706666</v>
       </c>
       <c r="R11">
-        <v>3.340586638851</v>
+        <v>4.578522602136</v>
       </c>
       <c r="S11">
-        <v>0.01084024457476492</v>
+        <v>0.01439240192583672</v>
       </c>
       <c r="T11">
-        <v>0.01084024457476492</v>
+        <v>0.01439240192583673</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.070789</v>
+        <v>0.748897</v>
       </c>
       <c r="H12">
-        <v>0.212367</v>
+        <v>2.246691</v>
       </c>
       <c r="I12">
-        <v>0.01313332532677934</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="J12">
-        <v>0.01313332532677934</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6792986666666666</v>
+        <v>0.478937</v>
       </c>
       <c r="N12">
-        <v>2.037896</v>
+        <v>1.436811</v>
       </c>
       <c r="O12">
-        <v>0.1069327381315001</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P12">
-        <v>0.1069327381315001</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q12">
-        <v>0.04808687331466666</v>
+        <v>0.358674482489</v>
       </c>
       <c r="R12">
-        <v>0.432781859832</v>
+        <v>3.228070342401001</v>
       </c>
       <c r="S12">
-        <v>0.001404382437964292</v>
+        <v>0.01014730948167296</v>
       </c>
       <c r="T12">
-        <v>0.001404382437964292</v>
+        <v>0.01014730948167296</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.748897</v>
+      </c>
+      <c r="H13">
+        <v>2.246691</v>
+      </c>
+      <c r="I13">
+        <v>0.1247585905771153</v>
+      </c>
+      <c r="J13">
+        <v>0.1247585905771153</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.334861</v>
+      </c>
+      <c r="O13">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P13">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q13">
+        <v>0.08359213277233334</v>
+      </c>
+      <c r="R13">
+        <v>0.7523291949510001</v>
+      </c>
+      <c r="S13">
+        <v>0.002364916610704183</v>
+      </c>
+      <c r="T13">
+        <v>0.002364916610704183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4994553333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.498366</v>
+      </c>
+      <c r="I14">
+        <v>0.08320415683717519</v>
+      </c>
+      <c r="J14">
+        <v>0.08320415683717518</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.618552666666667</v>
+      </c>
+      <c r="N14">
+        <v>13.855658</v>
+      </c>
+      <c r="O14">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="P14">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="Q14">
+        <v>2.306760761647555</v>
+      </c>
+      <c r="R14">
+        <v>20.760846854828</v>
+      </c>
+      <c r="S14">
+        <v>0.06526088833022918</v>
+      </c>
+      <c r="T14">
+        <v>0.06526088833022917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4994553333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.498366</v>
+      </c>
+      <c r="I15">
+        <v>0.08320415683717519</v>
+      </c>
+      <c r="J15">
+        <v>0.08320415683717518</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.037896</v>
+      </c>
+      <c r="O15">
+        <v>0.1153620112191035</v>
+      </c>
+      <c r="P15">
+        <v>0.1153620112191036</v>
+      </c>
+      <c r="Q15">
+        <v>0.3392793419928888</v>
+      </c>
+      <c r="R15">
+        <v>3.053514077936</v>
+      </c>
+      <c r="S15">
+        <v>0.009598598874526253</v>
+      </c>
+      <c r="T15">
+        <v>0.009598598874526255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4994553333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.498366</v>
+      </c>
+      <c r="I16">
+        <v>0.08320415683717519</v>
+      </c>
+      <c r="J16">
+        <v>0.08320415683717518</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.478937</v>
+      </c>
+      <c r="N16">
+        <v>1.436811</v>
+      </c>
+      <c r="O16">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P16">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q16">
+        <v>0.2392076389806667</v>
+      </c>
+      <c r="R16">
+        <v>2.152868750826</v>
+      </c>
+      <c r="S16">
+        <v>0.006767456458772647</v>
+      </c>
+      <c r="T16">
+        <v>0.006767456458772647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4994553333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.498366</v>
+      </c>
+      <c r="I17">
+        <v>0.08320415683717519</v>
+      </c>
+      <c r="J17">
+        <v>0.08320415683717518</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.070789</v>
-      </c>
-      <c r="H13">
-        <v>0.212367</v>
-      </c>
-      <c r="I13">
-        <v>0.01313332532677934</v>
-      </c>
-      <c r="J13">
-        <v>0.01313332532677934</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.4298626666666667</v>
-      </c>
-      <c r="N13">
-        <v>1.289588</v>
-      </c>
-      <c r="O13">
-        <v>0.06766742557104236</v>
-      </c>
-      <c r="P13">
-        <v>0.06766742557104236</v>
-      </c>
-      <c r="Q13">
-        <v>0.03042954831066667</v>
-      </c>
-      <c r="R13">
-        <v>0.273865934796</v>
-      </c>
-      <c r="S13">
-        <v>0.0008886983140501264</v>
-      </c>
-      <c r="T13">
-        <v>0.0008886983140501264</v>
+      <c r="M17">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.334861</v>
+      </c>
+      <c r="O17">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P17">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q17">
+        <v>0.05574937079177777</v>
+      </c>
+      <c r="R17">
+        <v>0.501744337126</v>
+      </c>
+      <c r="S17">
+        <v>0.001577213173647103</v>
+      </c>
+      <c r="T17">
+        <v>0.001577213173647103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1128296666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.338489</v>
+      </c>
+      <c r="I18">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="J18">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.618552666666667</v>
+      </c>
+      <c r="N18">
+        <v>13.855658</v>
+      </c>
+      <c r="O18">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="P18">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="Q18">
+        <v>0.5211097578624444</v>
+      </c>
+      <c r="R18">
+        <v>4.689987820762</v>
+      </c>
+      <c r="S18">
+        <v>0.01474278836413196</v>
+      </c>
+      <c r="T18">
+        <v>0.01474278836413196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1128296666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.338489</v>
+      </c>
+      <c r="I19">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="J19">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N19">
+        <v>2.037896</v>
+      </c>
+      <c r="O19">
+        <v>0.1153620112191035</v>
+      </c>
+      <c r="P19">
+        <v>0.1153620112191036</v>
+      </c>
+      <c r="Q19">
+        <v>0.0766450421271111</v>
+      </c>
+      <c r="R19">
+        <v>0.689805379144</v>
+      </c>
+      <c r="S19">
+        <v>0.002168375506678287</v>
+      </c>
+      <c r="T19">
+        <v>0.002168375506678287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1128296666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.338489</v>
+      </c>
+      <c r="I20">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="J20">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.478937</v>
+      </c>
+      <c r="N20">
+        <v>1.436811</v>
+      </c>
+      <c r="O20">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P20">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q20">
+        <v>0.05403830206433333</v>
+      </c>
+      <c r="R20">
+        <v>0.486344718579</v>
+      </c>
+      <c r="S20">
+        <v>0.001528805091195005</v>
+      </c>
+      <c r="T20">
+        <v>0.001528805091195005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1128296666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.338489</v>
+      </c>
+      <c r="I21">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="J21">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.334861</v>
+      </c>
+      <c r="O21">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P21">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q21">
+        <v>0.01259408500322222</v>
+      </c>
+      <c r="R21">
+        <v>0.113346765029</v>
+      </c>
+      <c r="S21">
+        <v>0.00035630100384995</v>
+      </c>
+      <c r="T21">
+        <v>0.00035630100384995</v>
       </c>
     </row>
   </sheetData>
